--- a/darraz.lk/dtestcase.xlsx
+++ b/darraz.lk/dtestcase.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amila\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64AAE21-2174-4582-840A-B738B6884F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{076C1EE0-CAE0-4C42-8349-74584ED047A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,13 +227,13 @@
     <t>should have  valid facebook account</t>
   </si>
   <si>
-    <t>Test Case Senario Darraz - (01)  Login Module</t>
+    <t xml:space="preserve">Test Case Senario Darraz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,83 +377,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>41417</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>318389</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273DCE71-8548-45D2-BB55-DA7E11161143}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20996417" y="430693"/>
-          <a:ext cx="3954450" cy="4282111"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="112500"/>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A15D41E-19CE-48E4-8847-44361AC0885F}" name="Table4" displayName="Table4" ref="B3:M23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal">
-  <autoFilter ref="B3:M23" xr:uid="{0A15D41E-19CE-48E4-8847-44361AC0885F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:M23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal">
+  <autoFilter ref="B3:M23"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8404C555-0E38-4A0F-AE2F-47F4A734D140}" name="Test Case" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{172E4C95-A27A-4BA8-9770-19E5535D4ACB}" name="Test Case Description" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00DF790A-705A-4242-9A41-A0DD632F4F62}" name="PreRequests" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FD6C7747-5B8A-49C6-A72D-35453E11D610}" name="Test Steps" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6ABE400D-D339-40FD-996A-DB5902A78A6F}" name="Test Data" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{BC511C84-ED50-4EAD-8F2F-422DB32A2082}" name="Expected Results" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BF56E2A1-D651-4C30-ABA3-3BE296F558A5}" name="Actual Results" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{8E102199-5564-41F0-901F-FB5F7C15082A}" name="Status" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{05FB7AD4-7B9F-4F12-A895-39A26B3AECC0}" name="Created By" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{475A103F-AB69-4A29-8C13-FE5AAB1339FD}" name="Date Of Creation" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{5E0410D1-8ED0-4678-A36B-CA77A4BCD1C9}" name="Executed By" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{AC97A277-8A65-42C4-ACC1-1BB127CF0B93}" name="Date Of Execution" dataDxfId="0"/>
+    <tableColumn id="1" name="Test Case" dataDxfId="11"/>
+    <tableColumn id="2" name="Test Case Description" dataDxfId="10"/>
+    <tableColumn id="3" name="PreRequests" dataDxfId="9"/>
+    <tableColumn id="4" name="Test Steps" dataDxfId="8"/>
+    <tableColumn id="5" name="Test Data" dataDxfId="7"/>
+    <tableColumn id="6" name="Expected Results" dataDxfId="6"/>
+    <tableColumn id="7" name="Actual Results" dataDxfId="5"/>
+    <tableColumn id="16" name="Status" dataDxfId="4"/>
+    <tableColumn id="10" name="Created By" dataDxfId="3"/>
+    <tableColumn id="11" name="Date Of Creation" dataDxfId="2"/>
+    <tableColumn id="12" name="Executed By" dataDxfId="1"/>
+    <tableColumn id="13" name="Date Of Execution" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,18 +687,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A6DBAA-1C35-482D-9B7D-8BE20D9E2082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +714,7 @@
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -1312,9 +1245,8 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>